--- a/biology/Zoologie/Boiga_dendrophila/Boiga_dendrophila.xlsx
+++ b/biology/Zoologie/Boiga_dendrophila/Boiga_dendrophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serpent des palétuviers
-Boiga dendrophila  ou serpent des mangroves ou serpent des palétuviers[1] est une espèce de serpents de la famille des Colubridae[2].
+Boiga dendrophila  ou serpent des mangroves ou serpent des palétuviers est une espèce de serpents de la famille des Colubridae.
 Cette couleuvre est venimeuse. Chez l'homme les morsures provoquent des symptômes douloureux mais sans doute très rarement mortels (aucun cas de décès n'a été enregistré).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brunei, au Cambodge, en Inde, en Indonésie, en Malaisie, aux Philippines, à Singapour, en Thaïlande et au Viêt Nam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brunei, au Cambodge, en Inde, en Indonésie, en Malaisie, aux Philippines, à Singapour, en Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent vit dans les forêts tropicales humides et les forêts riveraines. Il est très abondant dans la mangrove d'où son nom de serpent des palétuviers.
 </t>
@@ -575,13 +591,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent arboricole et forestier est l'un des plus grands serpents chats.
 Boiga dendrophila peut atteindre 2,30 mètres de long. Son dos est brun sombre à noir, avec de fines bandes transversales jaunes. Son ventre est jaune.
 Il est souvent enroulé sur les branches des arbres et dans les buissons le long des berges.
-C'est un serpent nocturne qui se nourrit de petits mammifères tels les rats et les souris, de poissons, d'amphibiens[3], de lézards et d'oiseaux.
-Les femelles sont ovipares et elles pondent de 4 à 15 œufs dans la litière, les arbres creux et les souches en décomposition[4].
+C'est un serpent nocturne qui se nourrit de petits mammifères tels les rats et les souris, de poissons, d'amphibiens, de lézards et d'oiseaux.
+Les femelles sont ovipares et elles pondent de 4 à 15 œufs dans la litière, les arbres creux et les souches en décomposition.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Boiga dendrophila annectens (Boulenger, 1896) - île de Bornéo
 Boiga dendrophila dendrophila (Boie, 1827) - ile de Java
 Boiga dendrophila divergens Taylor, 1922 - Philippines
@@ -649,9 +669,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Boiga dendrophila levitoni est nommée en l'honneur d'Alan Edward Leviton[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Boiga dendrophila levitoni est nommée en l'honneur d'Alan Edward Leviton.
 </t>
         </is>
       </c>
@@ -680,7 +702,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ahl, 1933 : Ergebnisse der Celebes und Halmahera Expedition Heinrich 1930-32. Reptilien und Amphibien. Mitteilungen aus dem Zoologischen Museum in Berlin, vol. 19, p. 577-583.
 Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral).
